--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_10.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_10.xlsx
@@ -508,393 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_9</t>
+          <t>model_1_10_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9760714492500163</v>
+        <v>0.9177310735301702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7132496450372714</v>
+        <v>0.6897603631461569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7163059395899531</v>
+        <v>0.6251619395871221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9582346666909622</v>
+        <v>0.2358991252723888</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1004230086414597</v>
+        <v>0.3452650852166202</v>
       </c>
       <c r="G2" t="n">
-        <v>1.917500943999743</v>
+        <v>2.074573880163824</v>
       </c>
       <c r="H2" t="n">
-        <v>1.014757204559984</v>
+        <v>1.340774007737343</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0419679258312365</v>
+        <v>0.9808904267051423</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3500486614944491</v>
+        <v>1.332213079739858</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3168958955894817</v>
+        <v>0.5875926184157015</v>
       </c>
       <c r="L2" t="n">
-        <v>1.014006956536576</v>
+        <v>0.717935109246298</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3303868099296636</v>
+        <v>0.6126076526660617</v>
       </c>
       <c r="N2" t="n">
-        <v>134.5967278564885</v>
+        <v>36.12688558808748</v>
       </c>
       <c r="O2" t="n">
-        <v>213.8236564729215</v>
+        <v>56.84777461084688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_8</t>
+          <t>model_1_10_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9758607927566271</v>
+        <v>0.9177637058211647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7130083365003597</v>
+        <v>0.6871022828793578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7161625453174654</v>
+        <v>0.6246088755980619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9630758769557992</v>
+        <v>0.2275127151307959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1013070888800436</v>
+        <v>0.3451281344720989</v>
       </c>
       <c r="G3" t="n">
-        <v>1.919114575297195</v>
+        <v>2.092348475147243</v>
       </c>
       <c r="H3" t="n">
-        <v>1.015270117558195</v>
+        <v>1.342752285557719</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03710323214317891</v>
+        <v>0.9916562165300051</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3375398996748433</v>
+        <v>1.328734657777418</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3182877454129261</v>
+        <v>0.5874760714038478</v>
       </c>
       <c r="L3" t="n">
-        <v>1.014130267654657</v>
+        <v>0.7180469913868506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3318379136816183</v>
+        <v>0.6124861440066277</v>
       </c>
       <c r="N3" t="n">
-        <v>134.5791977822068</v>
+        <v>36.12767905327463</v>
       </c>
       <c r="O3" t="n">
-        <v>213.8061263986399</v>
+        <v>56.84856807603404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_7</t>
+          <t>model_1_10_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9756141597804469</v>
+        <v>0.9178177013234343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7127463221993096</v>
+        <v>0.6827291440278404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7159611579779775</v>
+        <v>0.6241136480515295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9673517096755008</v>
+        <v>0.2191869402384611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1023421547207207</v>
+        <v>0.344901526899928</v>
       </c>
       <c r="G4" t="n">
-        <v>1.920866666134782</v>
+        <v>2.121591674783793</v>
       </c>
       <c r="H4" t="n">
-        <v>1.015990468394435</v>
+        <v>1.344523685776722</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0328066584963363</v>
+        <v>1.002344167763806</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3250239039654476</v>
+        <v>1.324919625165924</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3199096039832514</v>
+        <v>0.5872831743715531</v>
       </c>
       <c r="L4" t="n">
-        <v>1.014274638177299</v>
+        <v>0.7182321188232035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3335288181289924</v>
+        <v>0.6122850349483163</v>
       </c>
       <c r="N4" t="n">
-        <v>134.5588672425913</v>
+        <v>36.12899266393807</v>
       </c>
       <c r="O4" t="n">
-        <v>213.7857958590243</v>
+        <v>56.84988168669748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_6</t>
+          <t>model_1_10_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9753314478488918</v>
+        <v>0.9180193267772607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7124633951813133</v>
+        <v>0.6701965453468308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7157017333897882</v>
+        <v>0.6239890809002069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9710641637188806</v>
+        <v>0.2107614059918764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035286362190041</v>
+        <v>0.344055348002447</v>
       </c>
       <c r="G5" t="n">
-        <v>1.922758600406883</v>
+        <v>2.205397219871015</v>
       </c>
       <c r="H5" t="n">
-        <v>1.016918415104086</v>
+        <v>1.344969255254185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0290761963259141</v>
+        <v>1.013160181925938</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3125105851097588</v>
+        <v>1.318794426963733</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3217586614514116</v>
+        <v>0.5865623138273094</v>
       </c>
       <c r="L5" t="n">
-        <v>1.014440128088454</v>
+        <v>0.7189234060934653</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3354565938016489</v>
+        <v>0.6115334858783171</v>
       </c>
       <c r="N5" t="n">
-        <v>134.5358140522013</v>
+        <v>36.13390547839011</v>
       </c>
       <c r="O5" t="n">
-        <v>213.7627426686343</v>
+        <v>56.85479450114952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_5</t>
+          <t>model_1_10_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9750125638821386</v>
+        <v>0.9172391096519145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7121593536174409</v>
+        <v>0.6693784696539767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7153835638181747</v>
+        <v>0.6112714706454088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.974215310237285</v>
+        <v>0.1176165006308502</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1048669240110011</v>
+        <v>0.3473297523715004</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92479172774448</v>
+        <v>2.210867695796022</v>
       </c>
       <c r="H6" t="n">
-        <v>1.018056489213216</v>
+        <v>1.390459409726186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02590976443396175</v>
+        <v>1.132732019868876</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3000096710708989</v>
+        <v>1.282297869252818</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3238316291084012</v>
+        <v>0.589346886283028</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01462679187387</v>
+        <v>0.716248375949421</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3376178119834312</v>
+        <v>0.6144366033483353</v>
       </c>
       <c r="N6" t="n">
-        <v>134.5101262460289</v>
+        <v>36.11496131052201</v>
       </c>
       <c r="O6" t="n">
-        <v>213.7370548624619</v>
+        <v>56.83585033328141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_4</t>
+          <t>model_1_10_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9746576680887649</v>
+        <v>0.9179945530115198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7118340894941955</v>
+        <v>0.6690852982951095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7150064626843685</v>
+        <v>0.6229894531563536</v>
       </c>
       <c r="E7" t="n">
-        <v>0.976810843835422</v>
+        <v>0.2033803588789037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1063563457355832</v>
+        <v>0.3441593181975947</v>
       </c>
       <c r="G7" t="n">
-        <v>1.926966770434325</v>
+        <v>2.212828134022697</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01940535810326</v>
+        <v>1.348544865732201</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02330164059275865</v>
+        <v>1.022635368634441</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2875305051172349</v>
+        <v>1.315830710061982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3261232063738844</v>
+        <v>0.5866509338589642</v>
       </c>
       <c r="L7" t="n">
-        <v>1.014834535752918</v>
+        <v>0.7188384674680679</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3400069464373249</v>
+        <v>0.6116258786481882</v>
       </c>
       <c r="N7" t="n">
-        <v>134.4819201414086</v>
+        <v>36.13330118905398</v>
       </c>
       <c r="O7" t="n">
-        <v>213.7088487578416</v>
+        <v>56.85419021181339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_3</t>
+          <t>model_1_10_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9742668533167175</v>
+        <v>0.9179253301006846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7114874328669706</v>
+        <v>0.6687164517012876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7145702453987726</v>
+        <v>0.6209965888363567</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9788572618390257</v>
+        <v>0.1887244921486406</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1079965117297795</v>
+        <v>0.3444498319460297</v>
       </c>
       <c r="G8" t="n">
-        <v>1.929284864896785</v>
+        <v>2.215294612893967</v>
       </c>
       <c r="H8" t="n">
-        <v>1.020965682040505</v>
+        <v>1.355673225851918</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02124529595977189</v>
+        <v>1.041449375850316</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2750830547647716</v>
+        <v>1.309978976561438</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3286282272261157</v>
+        <v>0.5868984852136098</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01506330537558</v>
+        <v>0.7186011317737757</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3426186112133437</v>
+        <v>0.611883968776503</v>
       </c>
       <c r="N8" t="n">
-        <v>134.4513127023558</v>
+        <v>36.13161364966761</v>
       </c>
       <c r="O8" t="n">
-        <v>213.6782413187888</v>
+        <v>56.85250267242702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_2</t>
+          <t>model_1_10_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9738403735639184</v>
+        <v>0.9171435664627848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7111194404077787</v>
+        <v>0.6683646049011086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7140751080087309</v>
+        <v>0.6103267491622234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9803638589058644</v>
+        <v>0.1107110544170856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1097863560186477</v>
+        <v>0.3477307266974359</v>
       </c>
       <c r="G9" t="n">
-        <v>1.931745632165851</v>
+        <v>2.217647414066869</v>
       </c>
       <c r="H9" t="n">
-        <v>1.022736759774969</v>
+        <v>1.393838623693441</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01973139079132052</v>
+        <v>1.141596668905724</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2674303204878428</v>
+        <v>1.27965999711968</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3313402420754951</v>
+        <v>0.5896869734846073</v>
       </c>
       <c r="L9" t="n">
-        <v>1.015312952060145</v>
+        <v>0.7159207993009766</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3454460821495058</v>
+        <v>0.6147911687661634</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4184380395063</v>
+        <v>36.11265374516623</v>
       </c>
       <c r="O9" t="n">
-        <v>213.6453666559393</v>
+        <v>56.83354276792564</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9733785088055517</v>
+        <v>0.9166058578911755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7107300938105525</v>
+        <v>0.6469938912560763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7135207590971487</v>
+        <v>0.6336971596945036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9813414184813259</v>
+        <v>0.3034494789868479</v>
       </c>
       <c r="F10" t="n">
-        <v>0.111724703606233</v>
+        <v>0.3499873745444999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.934349194654279</v>
+        <v>2.360553474614288</v>
       </c>
       <c r="H10" t="n">
-        <v>1.024719633688702</v>
+        <v>1.310244020313737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01874908933439166</v>
+        <v>0.8941747881414781</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2705899025601328</v>
+        <v>1.372197579386974</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3342524548993366</v>
+        <v>0.5915973077562979</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015583311918701</v>
+        <v>0.714077227055459</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3484822739023699</v>
+        <v>0.6167828299227369</v>
       </c>
       <c r="N10" t="n">
-        <v>134.3834348741057</v>
+        <v>36.09971639575863</v>
       </c>
       <c r="O10" t="n">
-        <v>213.6103634905387</v>
+        <v>56.82060541851803</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9728816683851894</v>
+        <v>0.9126892237218246</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7103192494129164</v>
+        <v>0.6463336349655457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7129079466641254</v>
+        <v>0.6507802915032075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9818028341949268</v>
+        <v>0.445103010395965</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1138098365651314</v>
+        <v>0.3664246502969577</v>
       </c>
       <c r="G11" t="n">
-        <v>1.937096513033036</v>
+        <v>2.364968611469267</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02691162822872</v>
+        <v>1.249138648370898</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01828543541590197</v>
+        <v>0.7123315296610959</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2765718722015291</v>
+        <v>1.445025050444589</v>
       </c>
       <c r="K11" t="n">
-        <v>0.337357135044053</v>
+        <v>0.6053301993928254</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015874145335499</v>
+        <v>0.7006487670462558</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3517191267084208</v>
+        <v>0.6311003591872361</v>
       </c>
       <c r="N11" t="n">
-        <v>134.3464526474439</v>
+        <v>36.00792474286762</v>
       </c>
       <c r="O11" t="n">
-        <v>213.5733812638769</v>
+        <v>56.72881376562703</v>
       </c>
     </row>
   </sheetData>
